--- a/October'21/11.10.2021/Hello Daffodils Balance Transfer August-2021.xlsx
+++ b/October'21/11.10.2021/Hello Daffodils Balance Transfer August-2021.xlsx
@@ -1319,8 +1319,8 @@
   <dimension ref="A1:BH238"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <pane ySplit="5" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2263,12 +2263,12 @@
         <v>166432</v>
       </c>
       <c r="C14" s="1">
-        <v>303547</v>
+        <v>305547</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1">
         <f t="shared" si="0"/>
-        <v>303547</v>
+        <v>305547</v>
       </c>
       <c r="F14" s="85"/>
       <c r="G14" s="18"/>
@@ -3583,7 +3583,7 @@
       </c>
       <c r="C34" s="1">
         <f>SUM(C6:C33)</f>
-        <v>2538398</v>
+        <v>2540398</v>
       </c>
       <c r="D34" s="1">
         <f>SUM(D6:D33)</f>
@@ -3591,11 +3591,11 @@
       </c>
       <c r="E34" s="1">
         <f>SUM(E6:E33)</f>
-        <v>2538398</v>
+        <v>2540398</v>
       </c>
       <c r="F34" s="1">
         <f>B34-E34</f>
-        <v>52010</v>
+        <v>50010</v>
       </c>
       <c r="G34" s="62"/>
       <c r="H34" s="84"/>
@@ -4670,7 +4670,7 @@
         <v>33</v>
       </c>
       <c r="C51" s="53">
-        <v>23600</v>
+        <v>21600</v>
       </c>
       <c r="D51" s="33" t="s">
         <v>74</v>
@@ -6735,7 +6735,7 @@
       <c r="B80" s="122"/>
       <c r="C80" s="100">
         <f>SUM(C38:C79)</f>
-        <v>387487</v>
+        <v>385487</v>
       </c>
       <c r="D80" s="101"/>
       <c r="E80" s="5"/>
